--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251108_201527.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251108_201527.xlsx
@@ -4417,7 +4417,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
